--- a/biology/Botanique/Alyxia_tisserantii/Alyxia_tisserantii.xlsx
+++ b/biology/Botanique/Alyxia_tisserantii/Alyxia_tisserantii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alyxia tisserantii est une espèce de plantes à fleurs de la famille des Apocynaceae. Elle est endémique de la Nouvelle-Calédonie.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme un arbuste dressé ou sarmenteux pouvant se développer en liane[1].
-Feuilles
-Les feuilles sont opposées ou verticillées par 3 ou 4, de formes variées[1].
-Fleurs
-Les fleurs sont blanches ou jaunâtres et se présentent de plusieurs façons : solitaires ou groupées des inflorescences pouvant elles-mêmes être simples ou composées[1].
-Fruits
-Les fruits, ellipsoïdes ou globuleux, sont solitaires ou en chapelets allant jusqu'à 5 articles. D'abord verts, ils deviennent noirs lorsqu'ils sont mûrs[1],[2].
-La fructification, à l'instar de la floraison, est étalée sur toute l'année[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un arbuste dressé ou sarmenteux pouvant se développer en liane.
 </t>
         </is>
       </c>
@@ -547,12 +557,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont opposées ou verticillées par 3 ou 4, de formes variées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches ou jaunâtres et se présentent de plusieurs façons : solitaires ou groupées des inflorescences pouvant elles-mêmes être simples ou composées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits, ellipsoïdes ou globuleux, sont solitaires ou en chapelets allant jusqu'à 5 articles. D'abord verts, ils deviennent noirs lorsqu'ils sont mûrs,.
+La fructification, à l'instar de la floraison, est étalée sur toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyxia_tisserantii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est largement répandue sur la Grande Terre, sur l'archipel de Belep et sur l'Ile des Pins. On la trouve aussi bien en forêt dense humide de toutes altitudes, que dans le maquis minier et les formations sclérophylles[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est largement répandue sur la Grande Terre, sur l'archipel de Belep et sur l'Ile des Pins. On la trouve aussi bien en forêt dense humide de toutes altitudes, que dans le maquis minier et les formations sclérophylles.
 </t>
         </is>
       </c>
